--- a/testData/Opencart_LoginData.xlsx
+++ b/testData/Opencart_LoginData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avasadi\Eclipse\MyWorkSpace\OpenCartProject\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7960A548-7A18-4BE1-A740-573E450EE9D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE044AE1-0AC6-4B6D-B2E4-F5FFE178E5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
@@ -170,10 +170,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -494,7 +494,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -528,7 +528,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -539,7 +539,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -561,10 +561,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
